--- a/Robot 4_Real Estate Web Scraping/PropertyListing.xlsx
+++ b/Robot 4_Real Estate Web Scraping/PropertyListing.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41a0d1d3150a1590/문서/UiPath/7Robots/Robot 4_Real Estate Web Scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1075" documentId="8_{1044EE22-EDB0-48E0-80E4-A0F0AC7F37D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85B015C1-E821-4963-9B11-669DBE2BF18C}"/>
+  <xr:revisionPtr revIDLastSave="1128" documentId="8_{1044EE22-EDB0-48E0-80E4-A0F0AC7F37D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{430064E0-6902-4E8B-AE73-72C9C5663B4E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{AFCE1ACA-3A88-4466-ADFC-9620BB784740}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AFCE1ACA-3A88-4466-ADFC-9620BB784740}"/>
   </bookViews>
   <sheets>
-    <sheet name="NY" sheetId="22" r:id="rId1"/>
+    <sheet name="NY" sheetId="26" r:id="rId1"/>
     <sheet name="TEXAS" sheetId="24" r:id="rId2"/>
     <sheet name="LA" sheetId="21" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="433">
   <si>
     <t>Price</t>
   </si>
@@ -56,129 +56,21 @@
     <t>Sqft</t>
   </si>
   <si>
-    <t>60 Hortons Road, Westtown, NY 10998</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/60-Hortons-Rd-Westtown-NY-10998/31823155_zpid/</t>
   </si>
   <si>
-    <t>230 Jaycox Road, Cold Spring, NY 10516</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/230-Jaycox-Rd-Cold-Spring-NY-10516/31922741_zpid/</t>
   </si>
   <si>
-    <t>56 Aspinwall Road, Briarcliff Manor, NY 10510</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/56-Aspinwall-Rd-Briarcliff-Manor-NY-10510/33074026_zpid/</t>
-  </si>
-  <si>
-    <t>10825 Flatlands 9th St, Brooklyn, NY 11236</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/10825-Flatlands-9th-St-Brooklyn-NY-11236/349776579_zpid/</t>
   </si>
   <si>
-    <t>213 Windemere Rd, Syracuse, NY 13219</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/213-Windemere-Rd-Syracuse-NY-13219/31736172_zpid/</t>
-  </si>
-  <si>
-    <t>15 Poplar Street, Nanuet, NY 10954</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/15-Poplar-St-Nanuet-NY-10954/53409169_zpid/</t>
-  </si>
-  <si>
-    <t>16 Dickinson Ave, Binghamton, NY 13901</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/16-Dickinson-Ave-Binghamton-NY-13901/29740869_zpid/</t>
-  </si>
-  <si>
-    <t>3322 Buffalo Rd, Rochester, NY 14624</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/3322-Buffalo-Rd-Rochester-NY-14624/30921951_zpid/</t>
-  </si>
-  <si>
-    <t>2770 Marion Street, Bellmore, NY 11710</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/2770-Marion-St-Bellmore-NY-11710/31419295_zpid/</t>
-  </si>
-  <si>
-    <t>38 Loomis Bay Rd, Ashville, NY 14710</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/38-Loomis-Bay-Rd-Ashville-NY-14710/29900460_zpid/</t>
-  </si>
-  <si>
-    <t>634 Highland Rd, Ithaca, NY 14850</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/634-Highland-Rd-Ithaca-NY-14850/32822619_zpid/</t>
-  </si>
-  <si>
-    <t>4273 Saunders Settlement Rd, Sanborn, NY 14132</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/4273-Saunders-Settlement-Rd-Sanborn-NY-14132/98148914_zpid/</t>
-  </si>
-  <si>
-    <t>70 &amp; 71 Cobb Ln, Water Mill, NY 11976</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/70-71-Cobb-Ln-Water-Mill-NY-11976/346216851_zpid/</t>
-  </si>
-  <si>
-    <t>177 Benedict Rd, Staten Island, NY 10304</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/177-Benedict-Rd-Staten-Island-NY-10304/32294383_zpid/</t>
-  </si>
-  <si>
-    <t>10 Amagansett Rd, East Hampton, NY 11937</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/10-Amagansett-Rd-East-Hampton-NY-11937/2067505111_zpid/</t>
-  </si>
-  <si>
-    <t>761 Route 212, Saugerties, NY 12477</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/761-Route-212-Saugerties-NY-12477/32867749_zpid/</t>
-  </si>
-  <si>
-    <t>33 Holly Street, Yonkers, NY 10704</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/33-Holly-St-Yonkers-NY-10704/33002729_zpid/</t>
-  </si>
-  <si>
-    <t>11 Gateway Lane, Manorville, NY 11949</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/11-Gateway-Ln-Manorville-NY-11949/59502532_zpid/</t>
   </si>
   <si>
-    <t>84 Glen Avenue, Middletown, NY 10940</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/84-Glen-Ave-Middletown-NY-10940/299700693_zpid/</t>
-  </si>
-  <si>
     <t>StreetAddress</t>
   </si>
   <si>
-    <t>92 Silver Hollow Road, Chichester, NY 12416</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/92-Silver-Hollow-Rd-Chichester-NY-12416/32872312_zpid/</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -188,219 +80,42 @@
     <t>FullAddress</t>
   </si>
   <si>
-    <t>40 Second Street, Saratoga Springs, NY 12866</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/40-2nd-St-Saratoga-Springs-NY-12866/32402409_zpid/</t>
-  </si>
-  <si>
     <t>60 Hortons Road</t>
   </si>
   <si>
     <t>230 Jaycox Road</t>
   </si>
   <si>
-    <t>761 Route 212</t>
-  </si>
-  <si>
-    <t>33 Holly Street</t>
-  </si>
-  <si>
-    <t>92 Silver Hollow Road</t>
-  </si>
-  <si>
-    <t>40 Second Street</t>
-  </si>
-  <si>
-    <t>70 &amp; 71 Cobb Ln</t>
-  </si>
-  <si>
-    <t>177 Benedict Rd</t>
-  </si>
-  <si>
-    <t>10 Amagansett Rd</t>
-  </si>
-  <si>
-    <t>18 Probst Drive, Shirley, NY 11967</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/18-Probst-Dr-Shirley-NY-11967/59336310_zpid/</t>
-  </si>
-  <si>
     <t>11 Gateway Lane</t>
   </si>
   <si>
-    <t>18 Probst Drive</t>
-  </si>
-  <si>
-    <t>84 Glen Avenue</t>
-  </si>
-  <si>
-    <t>1362 Woodmancy Rd, Tully, NY 13159</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1362-Woodmancy-Rd-Tully-NY-13159/31781839_zpid/</t>
-  </si>
-  <si>
-    <t>401 Browncroft Blvd, Rochester, NY 14609</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/401-Browncroft-Blvd-Rochester-NY-14609/30897648_zpid/</t>
-  </si>
-  <si>
-    <t>24 Private Road, Old Brookville, NY 11545</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/24-Private-Rd-Glen-Head-NY-11545/346962607_zpid/</t>
-  </si>
-  <si>
-    <t>41 Surrey Lane, Valley Stream, NY 11580</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/41-Surrey-Ln-Valley-Stream-NY-11580/31231137_zpid/</t>
-  </si>
-  <si>
-    <t>34 N Village Ln, Ticonderoga, NY 12883</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/34-Village-Ln-Ticonderoga-NY-12883/30433126_zpid/</t>
-  </si>
-  <si>
-    <t>1362 Woodmancy Rd</t>
-  </si>
-  <si>
-    <t>401 Browncroft Blvd</t>
-  </si>
-  <si>
-    <t>24 Private Road</t>
-  </si>
-  <si>
-    <t>41 Surrey Lane</t>
-  </si>
-  <si>
-    <t>34 N Village Ln</t>
-  </si>
-  <si>
-    <t>3939 Emmons Ave, Brooklyn, NY 11235</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/3939-Emmons-Ave-Brooklyn-NY-11235/347813469_zpid/</t>
   </si>
   <si>
-    <t>197 Wales Rd, Sherburne, NY 13460</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/197-Wales-Rd-Sherburne-NY-13460/29996259_zpid/</t>
-  </si>
-  <si>
-    <t>56 Aspinwall Road</t>
-  </si>
-  <si>
     <t>10825 Flatlands 9th St</t>
   </si>
   <si>
-    <t>213 Windemere Rd</t>
-  </si>
-  <si>
-    <t>15 Poplar Street</t>
-  </si>
-  <si>
-    <t>16 Dickinson Ave</t>
-  </si>
-  <si>
-    <t>3322 Buffalo Rd</t>
-  </si>
-  <si>
     <t>3939 Emmons Ave</t>
   </si>
   <si>
-    <t>197 Wales Rd</t>
-  </si>
-  <si>
-    <t>3440 Lakewood Dr, North Tonawanda, NY 14120</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/3440-Lakewood-Dr-North-Tonawanda-NY-14120/83947432_zpid/</t>
   </si>
   <si>
-    <t>185 Winspear Ave, Buffalo, NY 14215</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/185-Winspear-Ave-Buffalo-NY-14215/30160962_zpid/</t>
-  </si>
-  <si>
-    <t>4913 State Route 64, Canandaigua, NY 14424</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/4913-State-Route-64-Canandaigua-NY-14424/209044670_zpid/</t>
   </si>
   <si>
-    <t>137 Evergreen Pl, Cheektowaga, NY 14225</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/137-Evergreen-Pl-Cheektowaga-NY-14225/30288552_zpid/</t>
   </si>
   <si>
-    <t>237 S Roycroft Blvd, Cheektowaga, NY 14225</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/237-S-Roycroft-Blvd-Cheektowaga-NY-14225/30284303_zpid/</t>
-  </si>
-  <si>
-    <t>18 Jeffrey Pl, Staten Island, NY 10307</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/18-Jeffrey-Pl-Staten-Island-NY-10307/32374756_zpid/</t>
-  </si>
-  <si>
-    <t>125 Gorsline St, Rochester, NY 14613</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/125-Gorsline-St-Rochester-NY-14613/30850469_zpid/</t>
-  </si>
-  <si>
-    <t>164 Winslow St, Watertown, NY 13601</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/164-Winslow-St-Watertown-NY-13601/60561726_zpid/</t>
-  </si>
-  <si>
     <t>3440 Lakewood Dr</t>
   </si>
   <si>
-    <t>185 Winspear Ave</t>
-  </si>
-  <si>
     <t>4913 State Route 64</t>
   </si>
   <si>
     <t>137 Evergreen Pl</t>
   </si>
   <si>
-    <t>38 Loomis Bay Rd</t>
-  </si>
-  <si>
-    <t>634 Highland Rd</t>
-  </si>
-  <si>
-    <t>4273 Saunders Settlement Rd</t>
-  </si>
-  <si>
-    <t>2770 Marion Street</t>
-  </si>
-  <si>
-    <t>237 S Roycroft Blvd</t>
-  </si>
-  <si>
-    <t>18 Jeffrey Pl</t>
-  </si>
-  <si>
-    <t>125 Gorsline St</t>
-  </si>
-  <si>
-    <t>164 Winslow St</t>
-  </si>
-  <si>
     <t>120 Kingswood Dr, Lafayette, LA 70501</t>
   </si>
   <si>
@@ -848,82 +563,22 @@
     <t>Cheektowaga</t>
   </si>
   <si>
-    <t>Briarcliff Manor</t>
-  </si>
-  <si>
     <t>Brooklyn</t>
   </si>
   <si>
     <t>Syracuse</t>
   </si>
   <si>
-    <t>Nanuet</t>
-  </si>
-  <si>
-    <t>Binghamton</t>
-  </si>
-  <si>
     <t>Rochester</t>
   </si>
   <si>
-    <t>Sherburne</t>
-  </si>
-  <si>
-    <t>Tully</t>
-  </si>
-  <si>
-    <t>Ashville</t>
-  </si>
-  <si>
-    <t>Ithaca</t>
-  </si>
-  <si>
-    <t>Sanborn</t>
-  </si>
-  <si>
-    <t>Bellmore</t>
-  </si>
-  <si>
     <t>Staten Island</t>
   </si>
   <si>
-    <t>Saugerties</t>
-  </si>
-  <si>
     <t>Yonkers</t>
   </si>
   <si>
     <t>Manorville</t>
-  </si>
-  <si>
-    <t>Shirley</t>
-  </si>
-  <si>
-    <t>Middletown</t>
-  </si>
-  <si>
-    <t>Chichester</t>
-  </si>
-  <si>
-    <t>Water Mill</t>
-  </si>
-  <si>
-    <t>East Hampton</t>
-  </si>
-  <si>
-    <t>Saratoga Springs</t>
-  </si>
-  <si>
-    <t>Old Brookville</t>
-  </si>
-  <si>
-    <t>Valley Stream</t>
-  </si>
-  <si>
-    <t>Ticonderoga</t>
-  </si>
-  <si>
-    <t>Watertown</t>
   </si>
   <si>
     <t>1231 Deslonde St, New Orleans, LA 70117</t>
@@ -1396,6 +1051,294 @@
   </si>
   <si>
     <t>Waco</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/78-Camic-Rd-Central-Square-NY-13036/53791514_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/280-Belmont-Ave-Buffalo-NY-14223/30394494_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/471-Ridge-Rd-Webster-NY-14580/31046325_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2436-Manitou-Rd-Spencerport-NY-14559/30918072_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/34-Weichers-Ave-Ronkonkoma-NY-11779/59604794_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4362-Canal-Rd-Spencerport-NY-14559/30990438_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/506-Dewitt-St-Syracuse-NY-13203/31659188_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/193-River-Rd-Nyack-NY-10960/32384458_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/24-Parker-St-Auburn-NY-13021/30033501_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/236-Lakeshore-Dr-Pleasant-Valley-NY-12569/30123451_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/38-Southcross-Trl-Fairport-NY-14450/31016831_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/54-Barnett-Dr-Buffalo-NY-14224/30416027_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/61-Silver-Cascade-Way-Elizabethtown-NY-12932/299534192_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/209-Willow-Green-Dr-Amherst-NY-14228/30240444_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/19-Plymouth-Rd-Chappaqua-NY-10514/33067181_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/602-Sand-Creek-Rd-Albany-NY-12205/29679084_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/28-Bentley-Dr-Troy-NY-12182/98681920_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/151-Zimmerman-Blvd-Buffalo-NY-14223/30392362_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11900-Parker-Rd-East-Aurora-NY-14052/30365704_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/110-Yetman-Ave-Staten-Island-NY-10307/32377262_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/343-Bennington-Dr-Rochester-NY-14616/30952177_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/153-Bidwell-Pkwy-Buffalo-NY-14222/30170612_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/29-Bramblewood-Ln-W-Rochester-NY-14624/30920968_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/767-Stony-Brook-Rd-Elmira-NY-14905/29966101_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7180-State-Route-31-Cicero-NY-13039/31698985_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8438-Vermont-Hill-Rd-Holland-NY-14080/71194989_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/302-Metzger-Rd-Rhinebeck-NY-12572/53717131_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/135-Marlborough-Rd-Rochester-NY-14619/30882250_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/36-Alanview-Dr-Lockport-NY-14094/31436442_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/781-County-Road-39-Bainbridge-NY-13733/29982734_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7-Sprain-Valley-Rd-Scarsdale-NY-10583/33035080_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/211-County-Highway-122-Johnstown-NY-12095/61823576_zpid/</t>
+  </si>
+  <si>
+    <t>PricePerSqft</t>
+  </si>
+  <si>
+    <t>78 Camic Rd</t>
+  </si>
+  <si>
+    <t>Central Square</t>
+  </si>
+  <si>
+    <t>280 Belmont Ave</t>
+  </si>
+  <si>
+    <t>471 Ridge Rd</t>
+  </si>
+  <si>
+    <t>Webster</t>
+  </si>
+  <si>
+    <t>2436 Manitou Rd</t>
+  </si>
+  <si>
+    <t>Spencerport</t>
+  </si>
+  <si>
+    <t>34 Weichers Avenue</t>
+  </si>
+  <si>
+    <t>Ronkonkoma</t>
+  </si>
+  <si>
+    <t>4362 Canal Rd</t>
+  </si>
+  <si>
+    <t>506 Dewitt St</t>
+  </si>
+  <si>
+    <t>193 River Road</t>
+  </si>
+  <si>
+    <t>Nyack</t>
+  </si>
+  <si>
+    <t>24 Parker St</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>236 Lakeshore Drive</t>
+  </si>
+  <si>
+    <t>Pleasant Valley</t>
+  </si>
+  <si>
+    <t>38 Southcross Trl</t>
+  </si>
+  <si>
+    <t>Fairport</t>
+  </si>
+  <si>
+    <t>54 Barnett Dr</t>
+  </si>
+  <si>
+    <t>61 Silver Cascade Way</t>
+  </si>
+  <si>
+    <t>Elizabethtown</t>
+  </si>
+  <si>
+    <t>209 Willow Green Dr</t>
+  </si>
+  <si>
+    <t>Amherst</t>
+  </si>
+  <si>
+    <t>19 Plymouth Road</t>
+  </si>
+  <si>
+    <t>Chappaqua</t>
+  </si>
+  <si>
+    <t>602 Sand Creek Road</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>28 Bentley Drive</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>151 Zimmerman Blvd</t>
+  </si>
+  <si>
+    <t>11900 Parker Rd</t>
+  </si>
+  <si>
+    <t>East Aurora</t>
+  </si>
+  <si>
+    <t>110 Yetman Ave</t>
+  </si>
+  <si>
+    <t>343 Bennington Dr</t>
+  </si>
+  <si>
+    <t>153 Bidwell Pkwy</t>
+  </si>
+  <si>
+    <t>29 Bramblewood Ln W</t>
+  </si>
+  <si>
+    <t>767 Stony Brook Rd</t>
+  </si>
+  <si>
+    <t>Elmira</t>
+  </si>
+  <si>
+    <t>7180 State Route 31</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>8438 Vermont Hill Rd</t>
+  </si>
+  <si>
+    <t>Holland</t>
+  </si>
+  <si>
+    <t>302 Metzger Road</t>
+  </si>
+  <si>
+    <t>Rhinebeck</t>
+  </si>
+  <si>
+    <t>135 Marlborough Rd</t>
+  </si>
+  <si>
+    <t>36 Alanview Dr</t>
+  </si>
+  <si>
+    <t>Lockport</t>
+  </si>
+  <si>
+    <t>781 County Road 39</t>
+  </si>
+  <si>
+    <t>Bainbridge</t>
+  </si>
+  <si>
+    <t>7 Sprain Valley Road</t>
+  </si>
+  <si>
+    <t>Scarsdale</t>
+  </si>
+  <si>
+    <t>211 County Highway 122</t>
+  </si>
+  <si>
+    <t>Johnstown</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1053-Penfield-Rd-Rochester-NY-14625/31003439_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5-Delavan-Ter-Yonkers-NY-10703/348747369_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5053-Eastbrooke-Pl-Williamsville-NY-14221/30310699_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/146-Brewster-Rd-Scarsdale-NY-10583/33093972_zpid/</t>
+  </si>
+  <si>
+    <t>1053 Penfield Rd</t>
+  </si>
+  <si>
+    <t>5 (aka 17) Delavan Terrace</t>
+  </si>
+  <si>
+    <t>5053 Eastbrooke Pl</t>
+  </si>
+  <si>
+    <t>Williamsville</t>
+  </si>
+  <si>
+    <t>146 Brewster Road</t>
   </si>
 </sst>
 </file>
@@ -1453,8 +1396,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1791,12 +1737,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B51A11B-7089-4DB0-A92A-D407B36AC5BD}">
-  <dimension ref="A1:I38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27741F0D-51F0-4B5A-9A1D-DE217D4F9D2D}">
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1809,19 +1758,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -1829,326 +1778,326 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>697000</v>
+        <v>99000</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>383</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>263</v>
+        <v>384</v>
+      </c>
+      <c r="F2">
+        <v>13021</v>
       </c>
       <c r="G2">
-        <v>10998</v>
-      </c>
-      <c r="H2">
-        <v>2300</v>
+        <v>1704</v>
+      </c>
+      <c r="H2" s="1">
+        <v>58.098591549295698</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1500000</v>
+        <v>189900</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>380</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>264</v>
+        <v>175</v>
+      </c>
+      <c r="F3">
+        <v>13203</v>
       </c>
       <c r="G3">
-        <v>10516</v>
-      </c>
-      <c r="H3">
-        <v>3531</v>
+        <v>3113</v>
+      </c>
+      <c r="H3" s="1">
+        <v>61.0022486347574</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>599900</v>
+        <v>224900</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>407</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" t="s">
-        <v>265</v>
+        <v>408</v>
+      </c>
+      <c r="F4">
+        <v>14905</v>
       </c>
       <c r="G4">
-        <v>14120</v>
-      </c>
-      <c r="H4">
-        <v>2896</v>
+        <v>3020</v>
+      </c>
+      <c r="H4" s="1">
+        <v>74.470198675496604</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>275000</v>
+        <v>99000</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" t="s">
-        <v>266</v>
+        <v>173</v>
+      </c>
+      <c r="F5">
+        <v>14225</v>
       </c>
       <c r="G5">
-        <v>14215</v>
-      </c>
-      <c r="H5">
-        <v>1554</v>
+        <v>1263</v>
+      </c>
+      <c r="H5" s="1">
+        <v>78.384798099762406</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>179000</v>
+        <v>84900</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>422</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" t="s">
-        <v>267</v>
+        <v>423</v>
+      </c>
+      <c r="F6">
+        <v>12095</v>
       </c>
       <c r="G6">
-        <v>14424</v>
-      </c>
-      <c r="H6">
-        <v>1267</v>
+        <v>997</v>
+      </c>
+      <c r="H6" s="1">
+        <v>85.155466399197493</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>99000</v>
+        <v>248000</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>409</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" t="s">
-        <v>268</v>
+        <v>410</v>
+      </c>
+      <c r="F7">
+        <v>13039</v>
       </c>
       <c r="G7">
-        <v>14225</v>
-      </c>
-      <c r="H7">
-        <v>1263</v>
+        <v>2556</v>
+      </c>
+      <c r="H7" s="1">
+        <v>97.026604068857594</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>749000</v>
+        <v>189900</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>379</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" t="s">
-        <v>269</v>
+        <v>376</v>
+      </c>
+      <c r="F8">
+        <v>14559</v>
       </c>
       <c r="G8">
-        <v>10510</v>
-      </c>
-      <c r="H8">
-        <v>2390</v>
+        <v>1776</v>
+      </c>
+      <c r="H8" s="1">
+        <v>106.925675675675</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>695000</v>
+        <v>159900</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>415</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" t="s">
-        <v>270</v>
+        <v>176</v>
+      </c>
+      <c r="F9">
+        <v>14619</v>
       </c>
       <c r="G9">
-        <v>11236</v>
-      </c>
-      <c r="H9">
-        <v>2044</v>
+        <v>1443</v>
+      </c>
+      <c r="H9" s="1">
+        <v>110.81081081081</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>109000</v>
+        <v>149900</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>375</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" t="s">
-        <v>271</v>
+        <v>376</v>
+      </c>
+      <c r="F10">
+        <v>14559</v>
       </c>
       <c r="G10">
-        <v>13219</v>
-      </c>
-      <c r="H10">
-        <v>762</v>
+        <v>1331</v>
+      </c>
+      <c r="H10" s="1">
+        <v>112.622088655146</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>635000</v>
+        <v>169900</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>418</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" t="s">
-        <v>272</v>
+        <v>419</v>
+      </c>
+      <c r="F11">
+        <v>13733</v>
       </c>
       <c r="G11">
-        <v>10954</v>
-      </c>
-      <c r="H11">
-        <v>1980</v>
+        <v>1500</v>
+      </c>
+      <c r="H11" s="1">
+        <v>113.266666666666</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>224900</v>
+        <v>55000</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" t="s">
-        <v>273</v>
+        <v>174</v>
+      </c>
+      <c r="F12">
+        <v>11235</v>
       </c>
       <c r="G12">
-        <v>13901</v>
-      </c>
-      <c r="H12">
-        <v>2647</v>
+        <v>480</v>
+      </c>
+      <c r="H12" s="1">
+        <v>114.583333333333</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>249000</v>
+        <v>159900</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -2157,85 +2106,85 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" t="s">
-        <v>274</v>
+        <v>176</v>
+      </c>
+      <c r="F13">
+        <v>14616</v>
       </c>
       <c r="G13">
-        <v>14624</v>
-      </c>
-      <c r="H13">
-        <v>1939</v>
+        <v>1350</v>
+      </c>
+      <c r="H13" s="1">
+        <v>118.444444444444</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>55000</v>
+        <v>134900</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" t="s">
-        <v>270</v>
+        <v>171</v>
+      </c>
+      <c r="F14">
+        <v>14223</v>
       </c>
       <c r="G14">
-        <v>11235</v>
-      </c>
-      <c r="H14">
-        <v>480</v>
+        <v>1104</v>
+      </c>
+      <c r="H14" s="1">
+        <v>122.19202898550699</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>199900</v>
+        <v>169900</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" t="s">
-        <v>275</v>
+        <v>371</v>
+      </c>
+      <c r="F15">
+        <v>13036</v>
       </c>
       <c r="G15">
-        <v>13460</v>
-      </c>
-      <c r="H15">
-        <v>1870</v>
+        <v>1338</v>
+      </c>
+      <c r="H15" s="1">
+        <v>126.980568011958</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>175000</v>
+        <v>149900</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -2244,30 +2193,30 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>406</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" t="s">
-        <v>276</v>
+        <v>176</v>
+      </c>
+      <c r="F16">
+        <v>14624</v>
       </c>
       <c r="G16">
-        <v>13159</v>
-      </c>
-      <c r="H16">
-        <v>1344</v>
+        <v>1122</v>
+      </c>
+      <c r="H16" s="1">
+        <v>133.600713012477</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>549900</v>
+        <v>179000</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2276,198 +2225,198 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" t="s">
-        <v>277</v>
+        <v>172</v>
+      </c>
+      <c r="F17">
+        <v>14424</v>
       </c>
       <c r="G17">
-        <v>14710</v>
-      </c>
-      <c r="H17">
-        <v>1820</v>
+        <v>1267</v>
+      </c>
+      <c r="H17" s="1">
+        <v>141.27861089186999</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>750000</v>
+        <v>169900</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>428</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" t="s">
-        <v>278</v>
+        <v>176</v>
+      </c>
+      <c r="F18">
+        <v>14625</v>
       </c>
       <c r="G18">
-        <v>14850</v>
-      </c>
-      <c r="H18">
-        <v>2549</v>
+        <v>1176</v>
+      </c>
+      <c r="H18" s="1">
+        <v>144.47278911564601</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>515000</v>
+        <v>199900</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>389</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" t="s">
-        <v>279</v>
+        <v>171</v>
+      </c>
+      <c r="F19">
+        <v>14224</v>
       </c>
       <c r="G19">
-        <v>14132</v>
-      </c>
-      <c r="H19">
-        <v>2204</v>
+        <v>1320</v>
+      </c>
+      <c r="H19" s="1">
+        <v>151.439393939393</v>
       </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>689000</v>
+        <v>159000</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>373</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" t="s">
-        <v>280</v>
+        <v>374</v>
+      </c>
+      <c r="F20">
+        <v>14580</v>
       </c>
       <c r="G20">
-        <v>11710</v>
-      </c>
-      <c r="H20">
-        <v>1458</v>
+        <v>1033</v>
+      </c>
+      <c r="H20" s="1">
+        <v>153.92061955469501</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>249999</v>
+        <v>749000</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>429</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" t="s">
-        <v>268</v>
+        <v>178</v>
+      </c>
+      <c r="F21">
+        <v>10703</v>
       </c>
       <c r="G21">
-        <v>14225</v>
-      </c>
-      <c r="H21">
-        <v>1944</v>
+        <v>4382</v>
+      </c>
+      <c r="H21" s="1">
+        <v>170.92651757188401</v>
       </c>
       <c r="I21" t="s">
-        <v>101</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2549000</v>
+        <v>249900</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>387</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" t="s">
-        <v>281</v>
+        <v>388</v>
+      </c>
+      <c r="F22">
+        <v>14450</v>
       </c>
       <c r="G22">
-        <v>10307</v>
-      </c>
-      <c r="H22">
-        <v>5175</v>
+        <v>1440</v>
+      </c>
+      <c r="H22" s="1">
+        <v>173.541666666666</v>
       </c>
       <c r="I22" t="s">
-        <v>103</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>219900</v>
+        <v>359900</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>416</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" t="s">
-        <v>274</v>
+        <v>417</v>
+      </c>
+      <c r="F23">
+        <v>14094</v>
       </c>
       <c r="G23">
-        <v>14613</v>
-      </c>
-      <c r="H23">
-        <v>1918</v>
+        <v>1956</v>
+      </c>
+      <c r="H23" s="1">
+        <v>183.99795501022399</v>
       </c>
       <c r="I23" t="s">
-        <v>105</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>169000</v>
+        <v>239900</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -2476,346 +2425,346 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>392</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" t="s">
-        <v>282</v>
+        <v>393</v>
+      </c>
+      <c r="F24">
+        <v>14228</v>
       </c>
       <c r="G24">
-        <v>12477</v>
-      </c>
-      <c r="H24">
-        <v>1047</v>
+        <v>1160</v>
+      </c>
+      <c r="H24" s="1">
+        <v>206.81034482758599</v>
       </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>699000</v>
+        <v>599900</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" t="s">
-        <v>283</v>
+        <v>170</v>
+      </c>
+      <c r="F25">
+        <v>14120</v>
       </c>
       <c r="G25">
-        <v>10704</v>
-      </c>
-      <c r="H25">
-        <v>2634</v>
+        <v>2896</v>
+      </c>
+      <c r="H25" s="1">
+        <v>207.14779005524801</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>849999</v>
+        <v>249900</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>396</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" t="s">
-        <v>284</v>
+        <v>397</v>
+      </c>
+      <c r="F26">
+        <v>12205</v>
       </c>
       <c r="G26">
-        <v>11949</v>
-      </c>
-      <c r="H26">
-        <v>3508</v>
+        <v>1200</v>
+      </c>
+      <c r="H26" s="1">
+        <v>208.25</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>399000</v>
+        <v>219000</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" t="s">
-        <v>285</v>
+        <v>171</v>
+      </c>
+      <c r="F27">
+        <v>14223</v>
       </c>
       <c r="G27">
-        <v>11967</v>
-      </c>
-      <c r="H27">
-        <v>1560</v>
+        <v>1044</v>
+      </c>
+      <c r="H27" s="1">
+        <v>209.77011494252801</v>
       </c>
       <c r="I27" t="s">
-        <v>61</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>100000</v>
+        <v>624900</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" t="s">
-        <v>286</v>
+        <v>431</v>
+      </c>
+      <c r="F28">
+        <v>14221</v>
       </c>
       <c r="G28">
-        <v>10940</v>
-      </c>
-      <c r="H28">
-        <v>480</v>
+        <v>2931</v>
+      </c>
+      <c r="H28" s="1">
+        <v>213.203684749232</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>219000</v>
+        <v>849999</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>287</v>
+        <v>179</v>
+      </c>
+      <c r="F29">
+        <v>11949</v>
       </c>
       <c r="G29">
-        <v>12416</v>
-      </c>
-      <c r="H29">
-        <v>1763</v>
+        <v>3508</v>
+      </c>
+      <c r="H29" s="1">
+        <v>242.30302166476599</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>399999</v>
+        <v>199999</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>401</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" t="s">
-        <v>274</v>
+        <v>402</v>
+      </c>
+      <c r="F30">
+        <v>14052</v>
       </c>
       <c r="G30">
-        <v>14609</v>
-      </c>
-      <c r="H30">
-        <v>2331</v>
+        <v>768</v>
+      </c>
+      <c r="H30" s="1">
+        <v>260.41536458333297</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>99500000</v>
+        <v>300000</v>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>398</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" t="s">
-        <v>288</v>
+        <v>399</v>
+      </c>
+      <c r="F31">
+        <v>12182</v>
       </c>
       <c r="G31">
-        <v>11976</v>
-      </c>
-      <c r="H31">
-        <v>45000</v>
+        <v>1144</v>
+      </c>
+      <c r="H31" s="1">
+        <v>262.23776223776201</v>
       </c>
       <c r="I31" t="s">
-        <v>30</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>16800000</v>
+        <v>949900</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>405</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" t="s">
-        <v>281</v>
+        <v>171</v>
+      </c>
+      <c r="F32">
+        <v>14222</v>
       </c>
       <c r="G32">
-        <v>10304</v>
-      </c>
-      <c r="H32">
-        <v>33000</v>
+        <v>3433</v>
+      </c>
+      <c r="H32" s="1">
+        <v>276.696766676376</v>
       </c>
       <c r="I32" t="s">
-        <v>32</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3250000</v>
+        <v>625000</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>411</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>289</v>
+        <v>412</v>
+      </c>
+      <c r="F33">
+        <v>14080</v>
       </c>
       <c r="G33">
-        <v>11937</v>
-      </c>
-      <c r="H33">
-        <v>2350</v>
+        <v>2102</v>
+      </c>
+      <c r="H33" s="1">
+        <v>297.33587059942897</v>
       </c>
       <c r="I33" t="s">
-        <v>34</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>475000</v>
+        <v>399900</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>385</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" t="s">
-        <v>290</v>
+        <v>386</v>
+      </c>
+      <c r="F34">
+        <v>12569</v>
       </c>
       <c r="G34">
-        <v>12866</v>
-      </c>
-      <c r="H34">
-        <v>1360</v>
+        <v>1340</v>
+      </c>
+      <c r="H34" s="1">
+        <v>298.43283582089498</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>45000000</v>
+        <v>259000</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>390</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" t="s">
-        <v>291</v>
+        <v>391</v>
+      </c>
+      <c r="F35">
+        <v>12932</v>
       </c>
       <c r="G35">
-        <v>11545</v>
-      </c>
-      <c r="H35">
-        <v>22000</v>
+        <v>856</v>
+      </c>
+      <c r="H35" s="1">
+        <v>302.57009345794302</v>
       </c>
       <c r="I35" t="s">
-        <v>70</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>688000</v>
+        <v>697000</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -2824,27 +2773,27 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" t="s">
-        <v>292</v>
+        <v>168</v>
+      </c>
+      <c r="F36">
+        <v>10998</v>
       </c>
       <c r="G36">
-        <v>11580</v>
-      </c>
-      <c r="H36">
-        <v>1417</v>
+        <v>2300</v>
+      </c>
+      <c r="H36" s="1">
+        <v>303.04347826086899</v>
       </c>
       <c r="I36" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>129900</v>
+        <v>695000</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -2853,27 +2802,27 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" t="s">
-        <v>293</v>
+        <v>174</v>
+      </c>
+      <c r="F37">
+        <v>11236</v>
       </c>
       <c r="G37">
-        <v>12883</v>
-      </c>
-      <c r="H37">
-        <v>1248</v>
+        <v>2044</v>
+      </c>
+      <c r="H37" s="1">
+        <v>340.01956947162398</v>
       </c>
       <c r="I37" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>265000</v>
+        <v>799000</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -2882,25 +2831,231 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>420</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" t="s">
-        <v>294</v>
+        <v>421</v>
+      </c>
+      <c r="F38">
+        <v>10583</v>
       </c>
       <c r="G38">
-        <v>13601</v>
-      </c>
-      <c r="H38">
-        <v>2747</v>
+        <v>1933</v>
+      </c>
+      <c r="H38" s="1">
+        <v>413.347128815313</v>
       </c>
       <c r="I38" t="s">
-        <v>107</v>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1500000</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39">
+        <v>10516</v>
+      </c>
+      <c r="G39">
+        <v>3531</v>
+      </c>
+      <c r="H39" s="1">
+        <v>424.80883602378901</v>
+      </c>
+      <c r="I39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>999000</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>394</v>
+      </c>
+      <c r="E40" t="s">
+        <v>395</v>
+      </c>
+      <c r="F40">
+        <v>10514</v>
+      </c>
+      <c r="G40">
+        <v>2275</v>
+      </c>
+      <c r="H40" s="1">
+        <v>439.12087912087901</v>
+      </c>
+      <c r="I40" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>349000</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>377</v>
+      </c>
+      <c r="E41" t="s">
+        <v>378</v>
+      </c>
+      <c r="F41">
+        <v>11779</v>
+      </c>
+      <c r="G41">
+        <v>751</v>
+      </c>
+      <c r="H41" s="1">
+        <v>464.71371504660402</v>
+      </c>
+      <c r="I41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>499900</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>403</v>
+      </c>
+      <c r="E42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42">
+        <v>10307</v>
+      </c>
+      <c r="G42">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="1">
+        <v>499.9</v>
+      </c>
+      <c r="I42" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1845000</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>432</v>
+      </c>
+      <c r="E43" t="s">
+        <v>421</v>
+      </c>
+      <c r="F43">
+        <v>10583</v>
+      </c>
+      <c r="G43">
+        <v>3103</v>
+      </c>
+      <c r="H43" s="1">
+        <v>594.58588462777902</v>
+      </c>
+      <c r="I43" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>595000</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>381</v>
+      </c>
+      <c r="E44" t="s">
+        <v>382</v>
+      </c>
+      <c r="F44">
+        <v>10960</v>
+      </c>
+      <c r="G44">
+        <v>935</v>
+      </c>
+      <c r="H44" s="1">
+        <v>636.36363636363603</v>
+      </c>
+      <c r="I44" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1375000</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>413</v>
+      </c>
+      <c r="E45" t="s">
+        <v>414</v>
+      </c>
+      <c r="F45">
+        <v>12572</v>
+      </c>
+      <c r="G45">
+        <v>2139</v>
+      </c>
+      <c r="H45" s="1">
+        <v>642.82374941561397</v>
+      </c>
+      <c r="I45" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I45">
+    <sortCondition ref="H1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2910,7 +3065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE025198-8E37-4ACA-86A3-3DCE5C5C2F3F}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2925,13 +3080,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2951,10 +3106,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>375</v>
+        <v>260</v>
       </c>
       <c r="E2" t="s">
-        <v>376</v>
+        <v>261</v>
       </c>
       <c r="F2">
         <v>78228</v>
@@ -2963,7 +3118,7 @@
         <v>1363</v>
       </c>
       <c r="H2" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2977,10 +3132,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>377</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
-        <v>376</v>
+        <v>261</v>
       </c>
       <c r="F3">
         <v>78247</v>
@@ -2989,7 +3144,7 @@
         <v>2002</v>
       </c>
       <c r="H3" t="s">
-        <v>326</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -3003,10 +3158,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>378</v>
+        <v>263</v>
       </c>
       <c r="E4" t="s">
-        <v>376</v>
+        <v>261</v>
       </c>
       <c r="F4">
         <v>78254</v>
@@ -3015,7 +3170,7 @@
         <v>2573</v>
       </c>
       <c r="H4" t="s">
-        <v>327</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3029,10 +3184,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>379</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
-        <v>380</v>
+        <v>265</v>
       </c>
       <c r="F5">
         <v>78665</v>
@@ -3041,7 +3196,7 @@
         <v>2102</v>
       </c>
       <c r="H5" t="s">
-        <v>328</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -3055,10 +3210,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>381</v>
+        <v>266</v>
       </c>
       <c r="E6" t="s">
-        <v>376</v>
+        <v>261</v>
       </c>
       <c r="F6">
         <v>78228</v>
@@ -3067,7 +3222,7 @@
         <v>690</v>
       </c>
       <c r="H6" t="s">
-        <v>329</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -3081,10 +3236,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>382</v>
+        <v>267</v>
       </c>
       <c r="E7" t="s">
-        <v>383</v>
+        <v>268</v>
       </c>
       <c r="F7">
         <v>78729</v>
@@ -3093,7 +3248,7 @@
         <v>1506</v>
       </c>
       <c r="H7" t="s">
-        <v>330</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -3107,10 +3262,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>384</v>
+        <v>269</v>
       </c>
       <c r="E8" t="s">
-        <v>376</v>
+        <v>261</v>
       </c>
       <c r="F8">
         <v>78233</v>
@@ -3119,7 +3274,7 @@
         <v>2538</v>
       </c>
       <c r="H8" t="s">
-        <v>331</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3133,10 +3288,10 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>385</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
-        <v>386</v>
+        <v>271</v>
       </c>
       <c r="F9">
         <v>77070</v>
@@ -3145,7 +3300,7 @@
         <v>3228</v>
       </c>
       <c r="H9" t="s">
-        <v>332</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -3159,10 +3314,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>387</v>
+        <v>272</v>
       </c>
       <c r="E10" t="s">
-        <v>388</v>
+        <v>273</v>
       </c>
       <c r="F10">
         <v>77386</v>
@@ -3171,7 +3326,7 @@
         <v>3074</v>
       </c>
       <c r="H10" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -3185,10 +3340,10 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>389</v>
+        <v>274</v>
       </c>
       <c r="E11" t="s">
-        <v>390</v>
+        <v>275</v>
       </c>
       <c r="F11">
         <v>75227</v>
@@ -3197,7 +3352,7 @@
         <v>1574</v>
       </c>
       <c r="H11" t="s">
-        <v>334</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3211,10 +3366,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>391</v>
+        <v>276</v>
       </c>
       <c r="E12" t="s">
-        <v>392</v>
+        <v>277</v>
       </c>
       <c r="F12">
         <v>75165</v>
@@ -3223,7 +3378,7 @@
         <v>2360</v>
       </c>
       <c r="H12" t="s">
-        <v>335</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3237,10 +3392,10 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>393</v>
+        <v>278</v>
       </c>
       <c r="E13" t="s">
-        <v>394</v>
+        <v>279</v>
       </c>
       <c r="F13">
         <v>77449</v>
@@ -3249,7 +3404,7 @@
         <v>2238</v>
       </c>
       <c r="H13" t="s">
-        <v>336</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -3263,10 +3418,10 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>395</v>
+        <v>280</v>
       </c>
       <c r="E14" t="s">
-        <v>386</v>
+        <v>271</v>
       </c>
       <c r="F14">
         <v>77090</v>
@@ -3275,7 +3430,7 @@
         <v>2516</v>
       </c>
       <c r="H14" t="s">
-        <v>337</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -3289,10 +3444,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>396</v>
+        <v>281</v>
       </c>
       <c r="E15" t="s">
-        <v>397</v>
+        <v>282</v>
       </c>
       <c r="F15">
         <v>75077</v>
@@ -3301,7 +3456,7 @@
         <v>1588</v>
       </c>
       <c r="H15" t="s">
-        <v>338</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -3315,10 +3470,10 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>398</v>
+        <v>283</v>
       </c>
       <c r="E16" t="s">
-        <v>390</v>
+        <v>275</v>
       </c>
       <c r="F16">
         <v>75227</v>
@@ -3327,7 +3482,7 @@
         <v>1034</v>
       </c>
       <c r="H16" t="s">
-        <v>339</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -3341,10 +3496,10 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>399</v>
+        <v>284</v>
       </c>
       <c r="E17" t="s">
-        <v>400</v>
+        <v>285</v>
       </c>
       <c r="F17">
         <v>76104</v>
@@ -3353,7 +3508,7 @@
         <v>1972</v>
       </c>
       <c r="H17" t="s">
-        <v>340</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -3367,10 +3522,10 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>401</v>
+        <v>286</v>
       </c>
       <c r="E18" t="s">
-        <v>376</v>
+        <v>261</v>
       </c>
       <c r="F18">
         <v>78255</v>
@@ -3379,7 +3534,7 @@
         <v>3446</v>
       </c>
       <c r="H18" t="s">
-        <v>341</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -3393,10 +3548,10 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>402</v>
+        <v>287</v>
       </c>
       <c r="E19" t="s">
-        <v>394</v>
+        <v>279</v>
       </c>
       <c r="F19">
         <v>77449</v>
@@ -3405,7 +3560,7 @@
         <v>2445</v>
       </c>
       <c r="H19" t="s">
-        <v>342</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -3419,10 +3574,10 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>403</v>
+        <v>288</v>
       </c>
       <c r="E20" t="s">
-        <v>390</v>
+        <v>275</v>
       </c>
       <c r="F20">
         <v>75241</v>
@@ -3431,7 +3586,7 @@
         <v>1724</v>
       </c>
       <c r="H20" t="s">
-        <v>343</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -3445,10 +3600,10 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>404</v>
+        <v>289</v>
       </c>
       <c r="E21" t="s">
-        <v>386</v>
+        <v>271</v>
       </c>
       <c r="F21">
         <v>77088</v>
@@ -3457,7 +3612,7 @@
         <v>2119</v>
       </c>
       <c r="H21" t="s">
-        <v>344</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -3471,10 +3626,10 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>405</v>
+        <v>290</v>
       </c>
       <c r="E22" t="s">
-        <v>386</v>
+        <v>271</v>
       </c>
       <c r="F22">
         <v>77003</v>
@@ -3483,7 +3638,7 @@
         <v>1793</v>
       </c>
       <c r="H22" t="s">
-        <v>345</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -3497,10 +3652,10 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>406</v>
+        <v>291</v>
       </c>
       <c r="E23" t="s">
-        <v>383</v>
+        <v>268</v>
       </c>
       <c r="F23">
         <v>78729</v>
@@ -3509,7 +3664,7 @@
         <v>2926</v>
       </c>
       <c r="H23" t="s">
-        <v>346</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -3523,10 +3678,10 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>407</v>
+        <v>292</v>
       </c>
       <c r="E24" t="s">
-        <v>408</v>
+        <v>293</v>
       </c>
       <c r="F24">
         <v>77423</v>
@@ -3535,7 +3690,7 @@
         <v>1832</v>
       </c>
       <c r="H24" t="s">
-        <v>347</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -3549,10 +3704,10 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>409</v>
+        <v>294</v>
       </c>
       <c r="E25" t="s">
-        <v>410</v>
+        <v>295</v>
       </c>
       <c r="F25">
         <v>77331</v>
@@ -3561,7 +3716,7 @@
         <v>1898</v>
       </c>
       <c r="H25" t="s">
-        <v>348</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -3575,10 +3730,10 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>411</v>
+        <v>296</v>
       </c>
       <c r="E26" t="s">
-        <v>390</v>
+        <v>275</v>
       </c>
       <c r="F26">
         <v>75216</v>
@@ -3587,7 +3742,7 @@
         <v>1950</v>
       </c>
       <c r="H26" t="s">
-        <v>349</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -3601,10 +3756,10 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>412</v>
+        <v>297</v>
       </c>
       <c r="E27" t="s">
-        <v>390</v>
+        <v>275</v>
       </c>
       <c r="F27">
         <v>75211</v>
@@ -3613,7 +3768,7 @@
         <v>876</v>
       </c>
       <c r="H27" t="s">
-        <v>350</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -3627,10 +3782,10 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>413</v>
+        <v>298</v>
       </c>
       <c r="E28" t="s">
-        <v>376</v>
+        <v>261</v>
       </c>
       <c r="F28">
         <v>78227</v>
@@ -3639,7 +3794,7 @@
         <v>1796</v>
       </c>
       <c r="H28" t="s">
-        <v>351</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -3653,10 +3808,10 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>414</v>
+        <v>299</v>
       </c>
       <c r="E29" t="s">
-        <v>386</v>
+        <v>271</v>
       </c>
       <c r="F29">
         <v>77059</v>
@@ -3665,7 +3820,7 @@
         <v>1831</v>
       </c>
       <c r="H29" t="s">
-        <v>352</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -3679,10 +3834,10 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>415</v>
+        <v>300</v>
       </c>
       <c r="E30" t="s">
-        <v>390</v>
+        <v>275</v>
       </c>
       <c r="F30">
         <v>75241</v>
@@ -3691,7 +3846,7 @@
         <v>1750</v>
       </c>
       <c r="H30" t="s">
-        <v>353</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -3705,10 +3860,10 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>416</v>
+        <v>301</v>
       </c>
       <c r="E31" t="s">
-        <v>417</v>
+        <v>302</v>
       </c>
       <c r="F31">
         <v>77406</v>
@@ -3717,7 +3872,7 @@
         <v>3802</v>
       </c>
       <c r="H31" t="s">
-        <v>354</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -3731,10 +3886,10 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>418</v>
+        <v>303</v>
       </c>
       <c r="E32" t="s">
-        <v>419</v>
+        <v>304</v>
       </c>
       <c r="F32">
         <v>75452</v>
@@ -3743,7 +3898,7 @@
         <v>2500</v>
       </c>
       <c r="H32" t="s">
-        <v>355</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -3757,10 +3912,10 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>420</v>
+        <v>305</v>
       </c>
       <c r="E33" t="s">
-        <v>421</v>
+        <v>306</v>
       </c>
       <c r="F33">
         <v>76017</v>
@@ -3769,7 +3924,7 @@
         <v>2956</v>
       </c>
       <c r="H33" t="s">
-        <v>356</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -3783,10 +3938,10 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>422</v>
+        <v>307</v>
       </c>
       <c r="E34" t="s">
-        <v>423</v>
+        <v>308</v>
       </c>
       <c r="F34">
         <v>76712</v>
@@ -3795,7 +3950,7 @@
         <v>2429</v>
       </c>
       <c r="H34" t="s">
-        <v>357</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -3809,10 +3964,10 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>424</v>
+        <v>309</v>
       </c>
       <c r="E35" t="s">
-        <v>425</v>
+        <v>310</v>
       </c>
       <c r="F35">
         <v>77429</v>
@@ -3821,7 +3976,7 @@
         <v>2257</v>
       </c>
       <c r="H35" t="s">
-        <v>358</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -3835,10 +3990,10 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>426</v>
+        <v>311</v>
       </c>
       <c r="E36" t="s">
-        <v>386</v>
+        <v>271</v>
       </c>
       <c r="F36">
         <v>77088</v>
@@ -3847,7 +4002,7 @@
         <v>1809</v>
       </c>
       <c r="H36" t="s">
-        <v>359</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -3861,10 +4016,10 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>427</v>
+        <v>312</v>
       </c>
       <c r="E37" t="s">
-        <v>428</v>
+        <v>313</v>
       </c>
       <c r="F37">
         <v>78641</v>
@@ -3873,7 +4028,7 @@
         <v>2170</v>
       </c>
       <c r="H37" t="s">
-        <v>360</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -3887,10 +4042,10 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>429</v>
+        <v>314</v>
       </c>
       <c r="E38" t="s">
-        <v>430</v>
+        <v>315</v>
       </c>
       <c r="F38">
         <v>75938</v>
@@ -3899,7 +4054,7 @@
         <v>2467</v>
       </c>
       <c r="H38" t="s">
-        <v>361</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -3913,10 +4068,10 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>431</v>
+        <v>316</v>
       </c>
       <c r="E39" t="s">
-        <v>432</v>
+        <v>317</v>
       </c>
       <c r="F39">
         <v>79938</v>
@@ -3925,7 +4080,7 @@
         <v>2707</v>
       </c>
       <c r="H39" t="s">
-        <v>362</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -3939,10 +4094,10 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>433</v>
+        <v>318</v>
       </c>
       <c r="E40" t="s">
-        <v>434</v>
+        <v>319</v>
       </c>
       <c r="F40">
         <v>75401</v>
@@ -3951,7 +4106,7 @@
         <v>2223</v>
       </c>
       <c r="H40" t="s">
-        <v>363</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -3965,10 +4120,10 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>435</v>
+        <v>320</v>
       </c>
       <c r="E41" t="s">
-        <v>386</v>
+        <v>271</v>
       </c>
       <c r="F41">
         <v>77090</v>
@@ -3977,7 +4132,7 @@
         <v>4518</v>
       </c>
       <c r="H41" t="s">
-        <v>364</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -3991,10 +4146,10 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>436</v>
+        <v>321</v>
       </c>
       <c r="E42" t="s">
-        <v>390</v>
+        <v>275</v>
       </c>
       <c r="F42">
         <v>75253</v>
@@ -4003,7 +4158,7 @@
         <v>2849</v>
       </c>
       <c r="H42" t="s">
-        <v>365</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -4017,10 +4172,10 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>437</v>
+        <v>322</v>
       </c>
       <c r="E43" t="s">
-        <v>392</v>
+        <v>277</v>
       </c>
       <c r="F43">
         <v>75165</v>
@@ -4029,7 +4184,7 @@
         <v>1152</v>
       </c>
       <c r="H43" t="s">
-        <v>366</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -4043,10 +4198,10 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>438</v>
+        <v>323</v>
       </c>
       <c r="E44" t="s">
-        <v>439</v>
+        <v>324</v>
       </c>
       <c r="F44">
         <v>77301</v>
@@ -4055,7 +4210,7 @@
         <v>1640</v>
       </c>
       <c r="H44" t="s">
-        <v>367</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -4069,10 +4224,10 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>440</v>
+        <v>325</v>
       </c>
       <c r="E45" t="s">
-        <v>432</v>
+        <v>317</v>
       </c>
       <c r="F45">
         <v>79912</v>
@@ -4081,7 +4236,7 @@
         <v>2679</v>
       </c>
       <c r="H45" t="s">
-        <v>368</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -4095,10 +4250,10 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>441</v>
+        <v>326</v>
       </c>
       <c r="E46" t="s">
-        <v>442</v>
+        <v>327</v>
       </c>
       <c r="F46">
         <v>75126</v>
@@ -4107,7 +4262,7 @@
         <v>2673</v>
       </c>
       <c r="H46" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -4121,10 +4276,10 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>443</v>
+        <v>328</v>
       </c>
       <c r="E47" t="s">
-        <v>386</v>
+        <v>271</v>
       </c>
       <c r="F47">
         <v>77095</v>
@@ -4133,7 +4288,7 @@
         <v>4211</v>
       </c>
       <c r="H47" t="s">
-        <v>370</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -4147,10 +4302,10 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>444</v>
+        <v>329</v>
       </c>
       <c r="E48" t="s">
-        <v>445</v>
+        <v>330</v>
       </c>
       <c r="F48">
         <v>78574</v>
@@ -4159,7 +4314,7 @@
         <v>2579</v>
       </c>
       <c r="H48" t="s">
-        <v>371</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -4173,10 +4328,10 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>446</v>
+        <v>331</v>
       </c>
       <c r="E49" t="s">
-        <v>447</v>
+        <v>332</v>
       </c>
       <c r="F49">
         <v>76538</v>
@@ -4185,7 +4340,7 @@
         <v>4815</v>
       </c>
       <c r="H49" t="s">
-        <v>372</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -4199,10 +4354,10 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>448</v>
+        <v>333</v>
       </c>
       <c r="E50" t="s">
-        <v>449</v>
+        <v>334</v>
       </c>
       <c r="F50">
         <v>76262</v>
@@ -4211,7 +4366,7 @@
         <v>3277</v>
       </c>
       <c r="H50" t="s">
-        <v>373</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -4225,10 +4380,10 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>450</v>
+        <v>335</v>
       </c>
       <c r="E51" t="s">
-        <v>451</v>
+        <v>336</v>
       </c>
       <c r="F51">
         <v>76708</v>
@@ -4237,7 +4392,7 @@
         <v>728</v>
       </c>
       <c r="H51" t="s">
-        <v>374</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4254,7 +4409,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="9" style="1"/>
+    <col min="7" max="7" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4268,16 +4423,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>324</v>
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -4297,22 +4452,22 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2" s="1">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2">
         <v>70501</v>
       </c>
       <c r="H2">
         <v>1909</v>
       </c>
       <c r="I2" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4326,22 +4481,22 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" s="1">
+        <v>102</v>
+      </c>
+      <c r="G3" s="2">
         <v>70447</v>
       </c>
       <c r="H3">
         <v>2459</v>
       </c>
       <c r="I3" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4355,22 +4510,22 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G4" s="1">
+        <v>104</v>
+      </c>
+      <c r="G4" s="2">
         <v>70130</v>
       </c>
       <c r="H4">
         <v>9062</v>
       </c>
       <c r="I4" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4384,22 +4539,22 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
         <v>70520</v>
       </c>
       <c r="H5">
         <v>1100</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4413,22 +4568,22 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" s="1">
+        <v>102</v>
+      </c>
+      <c r="G6" s="2">
         <v>70447</v>
       </c>
       <c r="H6">
         <v>2400</v>
       </c>
       <c r="I6" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4442,22 +4597,22 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7" s="1">
+        <v>109</v>
+      </c>
+      <c r="G7" s="2">
         <v>71371</v>
       </c>
       <c r="H7">
         <v>8200</v>
       </c>
       <c r="I7" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4471,22 +4626,22 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G8" s="1">
+        <v>111</v>
+      </c>
+      <c r="G8" s="2">
         <v>70435</v>
       </c>
       <c r="H8">
         <v>1106</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4500,22 +4655,22 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="1">
+        <v>113</v>
+      </c>
+      <c r="G9" s="2">
         <v>70815</v>
       </c>
       <c r="H9">
         <v>3835</v>
       </c>
       <c r="I9" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4529,22 +4684,22 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="1">
+        <v>104</v>
+      </c>
+      <c r="G10" s="2">
         <v>70117</v>
       </c>
       <c r="H10">
         <v>1815</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4558,22 +4713,22 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="F11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G11" s="1">
+        <v>104</v>
+      </c>
+      <c r="G11" s="2">
         <v>70117</v>
       </c>
       <c r="H11">
         <v>2197</v>
       </c>
       <c r="I11" t="s">
-        <v>296</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4587,22 +4742,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G12" s="1">
+        <v>104</v>
+      </c>
+      <c r="G12" s="2">
         <v>70129</v>
       </c>
       <c r="H12">
         <v>1318</v>
       </c>
       <c r="I12" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4616,22 +4771,22 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>160</v>
       </c>
       <c r="F13" t="s">
-        <v>217</v>
-      </c>
-      <c r="G13" s="1">
+        <v>122</v>
+      </c>
+      <c r="G13" s="2">
         <v>70003</v>
       </c>
       <c r="H13">
         <v>1635</v>
       </c>
       <c r="I13" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4645,22 +4800,22 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>244</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>256</v>
+        <v>161</v>
       </c>
       <c r="F14" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" s="1">
+        <v>104</v>
+      </c>
+      <c r="G14" s="2">
         <v>70131</v>
       </c>
       <c r="H14">
         <v>3681</v>
       </c>
       <c r="I14" t="s">
-        <v>245</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4674,22 +4829,22 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="E15" t="s">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="F15" t="s">
-        <v>221</v>
-      </c>
-      <c r="G15" s="1">
+        <v>126</v>
+      </c>
+      <c r="G15" s="2">
         <v>71129</v>
       </c>
       <c r="H15">
         <v>2111</v>
       </c>
       <c r="I15" t="s">
-        <v>247</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4703,22 +4858,22 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>258</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>221</v>
-      </c>
-      <c r="G16" s="1">
+        <v>126</v>
+      </c>
+      <c r="G16" s="2">
         <v>71118</v>
       </c>
       <c r="H16">
         <v>1641</v>
       </c>
       <c r="I16" t="s">
-        <v>249</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4732,22 +4887,22 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="E17" t="s">
-        <v>259</v>
+        <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>260</v>
-      </c>
-      <c r="G17" s="1">
+        <v>165</v>
+      </c>
+      <c r="G17" s="2">
         <v>70462</v>
       </c>
       <c r="H17">
         <v>2456</v>
       </c>
       <c r="I17" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4761,22 +4916,22 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="F18" t="s">
-        <v>262</v>
-      </c>
-      <c r="G18" s="1">
+        <v>167</v>
+      </c>
+      <c r="G18" s="2">
         <v>71446</v>
       </c>
       <c r="H18">
         <v>2059</v>
       </c>
       <c r="I18" t="s">
-        <v>253</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4790,22 +4945,22 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" s="1">
+        <v>116</v>
+      </c>
+      <c r="G19" s="2">
         <v>70458</v>
       </c>
       <c r="H19">
         <v>1640</v>
       </c>
       <c r="I19" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4819,22 +4974,22 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="E20" t="s">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="F20" t="s">
-        <v>307</v>
-      </c>
-      <c r="G20" s="1">
+        <v>192</v>
+      </c>
+      <c r="G20" s="2">
         <v>70454</v>
       </c>
       <c r="H20">
         <v>1248</v>
       </c>
       <c r="I20" t="s">
-        <v>298</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4848,22 +5003,22 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
-      </c>
-      <c r="G21" s="1">
+        <v>100</v>
+      </c>
+      <c r="G21" s="2">
         <v>70506</v>
       </c>
       <c r="H21">
         <v>1898</v>
       </c>
       <c r="I21" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4877,22 +5032,22 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
-      </c>
-      <c r="G22" s="1">
+        <v>119</v>
+      </c>
+      <c r="G22" s="2">
         <v>70047</v>
       </c>
       <c r="H22">
         <v>2266</v>
       </c>
       <c r="I22" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -4906,22 +5061,22 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
-      </c>
-      <c r="G23" s="1">
+        <v>113</v>
+      </c>
+      <c r="G23" s="2">
         <v>70810</v>
       </c>
       <c r="H23">
         <v>2551</v>
       </c>
       <c r="I23" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4935,22 +5090,22 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
-      </c>
-      <c r="G24" s="1">
+        <v>122</v>
+      </c>
+      <c r="G24" s="2">
         <v>70003</v>
       </c>
       <c r="H24">
         <v>2100</v>
       </c>
       <c r="I24" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -4964,22 +5119,22 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>200</v>
-      </c>
-      <c r="G25" s="1">
+        <v>105</v>
+      </c>
+      <c r="G25" s="2">
         <v>70726</v>
       </c>
       <c r="H25">
         <v>1700</v>
       </c>
       <c r="I25" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4993,22 +5148,22 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>211</v>
-      </c>
-      <c r="G26" s="1">
+        <v>116</v>
+      </c>
+      <c r="G26" s="2">
         <v>70458</v>
       </c>
       <c r="H26">
         <v>1490</v>
       </c>
       <c r="I26" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -5022,22 +5177,22 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
-      </c>
-      <c r="G27" s="1">
+        <v>126</v>
+      </c>
+      <c r="G27" s="2">
         <v>71118</v>
       </c>
       <c r="H27">
         <v>1923</v>
       </c>
       <c r="I27" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -5051,22 +5206,22 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c r="F28" t="s">
-        <v>195</v>
-      </c>
-      <c r="G28" s="1">
+        <v>100</v>
+      </c>
+      <c r="G28" s="2">
         <v>70501</v>
       </c>
       <c r="H28">
         <v>1260</v>
       </c>
       <c r="I28" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -5080,22 +5235,22 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>223</v>
+        <v>128</v>
       </c>
       <c r="F29" t="s">
-        <v>208</v>
-      </c>
-      <c r="G29" s="1">
+        <v>113</v>
+      </c>
+      <c r="G29" s="2">
         <v>70807</v>
       </c>
       <c r="H29">
         <v>962</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -5109,22 +5264,22 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>299</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
-        <v>308</v>
+        <v>193</v>
       </c>
       <c r="F30" t="s">
-        <v>309</v>
-      </c>
-      <c r="G30" s="1">
+        <v>194</v>
+      </c>
+      <c r="G30" s="2">
         <v>70563</v>
       </c>
       <c r="H30">
         <v>2112</v>
       </c>
       <c r="I30" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -5138,22 +5293,22 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>225</v>
-      </c>
-      <c r="G31" s="1">
+        <v>130</v>
+      </c>
+      <c r="G31" s="2">
         <v>70737</v>
       </c>
       <c r="H31">
         <v>2942</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -5167,22 +5322,22 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>208</v>
-      </c>
-      <c r="G32" s="1">
+        <v>113</v>
+      </c>
+      <c r="G32" s="2">
         <v>70807</v>
       </c>
       <c r="H32">
         <v>662</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -5196,22 +5351,22 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
-        <v>228</v>
-      </c>
-      <c r="G33" s="1">
+        <v>133</v>
+      </c>
+      <c r="G33" s="2">
         <v>70301</v>
       </c>
       <c r="H33">
         <v>1162</v>
       </c>
       <c r="I33" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -5225,22 +5380,22 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="F34" t="s">
-        <v>199</v>
-      </c>
-      <c r="G34" s="1">
+        <v>104</v>
+      </c>
+      <c r="G34" s="2">
         <v>70115</v>
       </c>
       <c r="H34">
         <v>4218</v>
       </c>
       <c r="I34" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -5254,22 +5409,22 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="F35" t="s">
-        <v>231</v>
-      </c>
-      <c r="G35" s="1">
+        <v>136</v>
+      </c>
+      <c r="G35" s="2">
         <v>70359</v>
       </c>
       <c r="H35">
         <v>2391</v>
       </c>
       <c r="I35" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -5283,22 +5438,22 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="F36" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" s="1">
+        <v>104</v>
+      </c>
+      <c r="G36" s="2">
         <v>70127</v>
       </c>
       <c r="H36">
         <v>1400</v>
       </c>
       <c r="I36" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -5312,22 +5467,22 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="F37" t="s">
-        <v>234</v>
-      </c>
-      <c r="G37" s="1">
+        <v>139</v>
+      </c>
+      <c r="G37" s="2">
         <v>70584</v>
       </c>
       <c r="H37">
         <v>3315</v>
       </c>
       <c r="I37" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -5341,22 +5496,22 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="F38" t="s">
-        <v>208</v>
-      </c>
-      <c r="G38" s="1">
+        <v>113</v>
+      </c>
+      <c r="G38" s="2">
         <v>70811</v>
       </c>
       <c r="H38">
         <v>2113</v>
       </c>
       <c r="I38" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -5370,22 +5525,22 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="E39" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="F39" t="s">
-        <v>237</v>
-      </c>
-      <c r="G39" s="1">
+        <v>142</v>
+      </c>
+      <c r="G39" s="2">
         <v>70363</v>
       </c>
       <c r="H39">
         <v>1353</v>
       </c>
       <c r="I39" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -5399,22 +5554,22 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="E40" t="s">
-        <v>310</v>
+        <v>195</v>
       </c>
       <c r="F40" t="s">
-        <v>307</v>
-      </c>
-      <c r="G40" s="1">
+        <v>192</v>
+      </c>
+      <c r="G40" s="2">
         <v>70454</v>
       </c>
       <c r="H40">
         <v>1560</v>
       </c>
       <c r="I40" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -5428,22 +5583,22 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
-        <v>199</v>
-      </c>
-      <c r="G41" s="1">
+        <v>104</v>
+      </c>
+      <c r="G41" s="2">
         <v>70122</v>
       </c>
       <c r="H41">
         <v>2009</v>
       </c>
       <c r="I41" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5457,22 +5612,22 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="F42" t="s">
-        <v>208</v>
-      </c>
-      <c r="G42" s="1">
+        <v>113</v>
+      </c>
+      <c r="G42" s="2">
         <v>70814</v>
       </c>
       <c r="H42">
         <v>1800</v>
       </c>
       <c r="I42" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -5486,22 +5641,22 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="E43" t="s">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c r="F43" t="s">
-        <v>312</v>
-      </c>
-      <c r="G43" s="1">
+        <v>197</v>
+      </c>
+      <c r="G43" s="2">
         <v>70075</v>
       </c>
       <c r="H43">
         <v>1704</v>
       </c>
       <c r="I43" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -5515,22 +5670,22 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="F44" t="s">
-        <v>314</v>
-      </c>
-      <c r="G44" s="1">
+        <v>199</v>
+      </c>
+      <c r="G44" s="2">
         <v>70769</v>
       </c>
       <c r="H44">
         <v>1183</v>
       </c>
       <c r="I44" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -5544,22 +5699,22 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="F45" t="s">
-        <v>200</v>
-      </c>
-      <c r="G45" s="1">
+        <v>105</v>
+      </c>
+      <c r="G45" s="2">
         <v>70726</v>
       </c>
       <c r="H45">
         <v>2600</v>
       </c>
       <c r="I45" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -5573,22 +5728,22 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c r="E46" t="s">
-        <v>316</v>
+        <v>201</v>
       </c>
       <c r="F46" t="s">
-        <v>317</v>
-      </c>
-      <c r="G46" s="1">
+        <v>202</v>
+      </c>
+      <c r="G46" s="2">
         <v>70582</v>
       </c>
       <c r="H46">
         <v>2732</v>
       </c>
       <c r="I46" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -5602,22 +5757,22 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="F47" t="s">
-        <v>199</v>
-      </c>
-      <c r="G47" s="1">
+        <v>104</v>
+      </c>
+      <c r="G47" s="2">
         <v>70124</v>
       </c>
       <c r="H47">
         <v>1865</v>
       </c>
       <c r="I47" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -5631,22 +5786,22 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
       <c r="F48" t="s">
-        <v>217</v>
-      </c>
-      <c r="G48" s="1">
+        <v>122</v>
+      </c>
+      <c r="G48" s="2">
         <v>70002</v>
       </c>
       <c r="H48">
         <v>3878</v>
       </c>
       <c r="I48" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -5660,22 +5815,22 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>320</v>
+        <v>205</v>
       </c>
       <c r="F49" t="s">
-        <v>321</v>
-      </c>
-      <c r="G49" s="1">
+        <v>206</v>
+      </c>
+      <c r="G49" s="2">
         <v>70401</v>
       </c>
       <c r="H49">
         <v>1653</v>
       </c>
       <c r="I49" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -5689,27 +5844,28 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>303</v>
+        <v>188</v>
       </c>
       <c r="E50" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
       <c r="F50" t="s">
-        <v>323</v>
-      </c>
-      <c r="G50" s="1">
+        <v>208</v>
+      </c>
+      <c r="G50" s="2">
         <v>70634</v>
       </c>
       <c r="H50">
         <v>1525</v>
       </c>
       <c r="I50" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
